--- a/plantillas/Reporte_Participacion.xlsx
+++ b/plantillas/Reporte_Participacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\consulta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Visual Studio Code\NodeJS\SIVACC\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9156CC-33F7-4600-B35F-D1CF5DDD0CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8823588-3C8A-444E-AAB8-0A2503A4E7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$G$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$G$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -125,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -148,18 +148,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -176,6 +199,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -483,10 +512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C26"/>
+  <dimension ref="A2:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,71 +524,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="2:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="5" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>
